--- a/Documentation/BOM_PASSIVES.xlsx
+++ b/Documentation/BOM_PASSIVES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akshi\Desktop\LPEDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akshi\Desktop\LPEDT\low-power\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t xml:space="preserve">Part </t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/abracon-llc/ASFLMB-40.000MHZ-LR-T/535-11000-1-ND/2624492</t>
+  </si>
+  <si>
+    <t>R9(0 ohm)</t>
+  </si>
+  <si>
+    <t>R10(0 ohm)</t>
   </si>
 </sst>
 </file>
@@ -662,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,54 +952,54 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
@@ -1004,122 +1010,144 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1135,28 +1163,30 @@
     <hyperlink ref="D19" r:id="rId8"/>
     <hyperlink ref="D20" r:id="rId9"/>
     <hyperlink ref="D23" r:id="rId10"/>
-    <hyperlink ref="D27" r:id="rId11"/>
-    <hyperlink ref="D36" r:id="rId12"/>
-    <hyperlink ref="D37" r:id="rId13"/>
-    <hyperlink ref="D38" r:id="rId14"/>
-    <hyperlink ref="D29" r:id="rId15"/>
-    <hyperlink ref="D31" r:id="rId16"/>
+    <hyperlink ref="D29" r:id="rId11"/>
+    <hyperlink ref="D38" r:id="rId12"/>
+    <hyperlink ref="D39" r:id="rId13"/>
+    <hyperlink ref="D40" r:id="rId14"/>
+    <hyperlink ref="D31" r:id="rId15"/>
+    <hyperlink ref="D33" r:id="rId16"/>
     <hyperlink ref="D14" r:id="rId17"/>
     <hyperlink ref="D15" r:id="rId18"/>
-    <hyperlink ref="D35" r:id="rId19"/>
-    <hyperlink ref="D33" r:id="rId20"/>
-    <hyperlink ref="D34" r:id="rId21"/>
+    <hyperlink ref="D37" r:id="rId19"/>
+    <hyperlink ref="D35" r:id="rId20"/>
+    <hyperlink ref="D36" r:id="rId21"/>
     <hyperlink ref="D2" r:id="rId22"/>
     <hyperlink ref="D10" r:id="rId23"/>
     <hyperlink ref="D11" r:id="rId24"/>
     <hyperlink ref="D22" r:id="rId25"/>
     <hyperlink ref="D21" r:id="rId26"/>
     <hyperlink ref="D24" r:id="rId27"/>
-    <hyperlink ref="D39" r:id="rId28"/>
-    <hyperlink ref="D40" r:id="rId29"/>
-    <hyperlink ref="D43" r:id="rId30"/>
+    <hyperlink ref="D41" r:id="rId28"/>
+    <hyperlink ref="D42" r:id="rId29"/>
+    <hyperlink ref="D45" r:id="rId30"/>
+    <hyperlink ref="D27" r:id="rId31"/>
+    <hyperlink ref="D28" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Documentation/BOM_PASSIVES.xlsx
+++ b/Documentation/BOM_PASSIVES.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
   <si>
     <t xml:space="preserve">Part </t>
   </si>
@@ -303,6 +303,24 @@
   </si>
   <si>
     <t>R10(0 ohm)</t>
+  </si>
+  <si>
+    <t>R12(1 ohm)</t>
+  </si>
+  <si>
+    <t>C20(0.1 uF)</t>
+  </si>
+  <si>
+    <t>C12(10 uF)</t>
+  </si>
+  <si>
+    <t>311-1.00HRCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-071RL/311-1.00HRCT-ND/729789</t>
+  </si>
+  <si>
+    <t>C25(0.1uF)</t>
   </si>
 </sst>
 </file>
@@ -668,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,7 +858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -851,7 +869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -862,7 +880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -873,7 +891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>31</v>
       </c>
@@ -884,7 +902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>32</v>
       </c>
@@ -895,7 +913,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -906,7 +924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -917,7 +935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>37</v>
       </c>
@@ -928,7 +946,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>57</v>
       </c>
@@ -939,7 +957,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>56</v>
       </c>
@@ -950,7 +968,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>91</v>
       </c>
@@ -961,7 +979,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>92</v>
       </c>
@@ -972,183 +990,227 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>54</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C37" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C40" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>52</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C44" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C45" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C46" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C47" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1163,30 +1225,32 @@
     <hyperlink ref="D19" r:id="rId8"/>
     <hyperlink ref="D20" r:id="rId9"/>
     <hyperlink ref="D23" r:id="rId10"/>
-    <hyperlink ref="D29" r:id="rId11"/>
-    <hyperlink ref="D38" r:id="rId12"/>
-    <hyperlink ref="D39" r:id="rId13"/>
-    <hyperlink ref="D40" r:id="rId14"/>
-    <hyperlink ref="D31" r:id="rId15"/>
-    <hyperlink ref="D33" r:id="rId16"/>
+    <hyperlink ref="D32" r:id="rId11"/>
+    <hyperlink ref="D41" r:id="rId12"/>
+    <hyperlink ref="D42" r:id="rId13"/>
+    <hyperlink ref="D43" r:id="rId14"/>
+    <hyperlink ref="D34" r:id="rId15"/>
+    <hyperlink ref="D36" r:id="rId16"/>
     <hyperlink ref="D14" r:id="rId17"/>
     <hyperlink ref="D15" r:id="rId18"/>
-    <hyperlink ref="D37" r:id="rId19"/>
-    <hyperlink ref="D35" r:id="rId20"/>
-    <hyperlink ref="D36" r:id="rId21"/>
+    <hyperlink ref="D40" r:id="rId19"/>
+    <hyperlink ref="D38" r:id="rId20"/>
+    <hyperlink ref="D39" r:id="rId21"/>
     <hyperlink ref="D2" r:id="rId22"/>
     <hyperlink ref="D10" r:id="rId23"/>
     <hyperlink ref="D11" r:id="rId24"/>
     <hyperlink ref="D22" r:id="rId25"/>
     <hyperlink ref="D21" r:id="rId26"/>
     <hyperlink ref="D24" r:id="rId27"/>
-    <hyperlink ref="D41" r:id="rId28"/>
-    <hyperlink ref="D42" r:id="rId29"/>
-    <hyperlink ref="D45" r:id="rId30"/>
+    <hyperlink ref="D44" r:id="rId28"/>
+    <hyperlink ref="D45" r:id="rId29"/>
+    <hyperlink ref="D48" r:id="rId30"/>
     <hyperlink ref="D27" r:id="rId31"/>
     <hyperlink ref="D28" r:id="rId32"/>
+    <hyperlink ref="D31" r:id="rId33"/>
+    <hyperlink ref="D49" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Documentation/BOM_PASSIVES.xlsx
+++ b/Documentation/BOM_PASSIVES.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akshi\Desktop\LPEDT\low-power\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\low-power\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
   <si>
     <t xml:space="preserve">Part </t>
   </si>
@@ -218,9 +218,6 @@
     <t xml:space="preserve">https://www.digikey.com/product-detail/en/yageo/RC0603JR-070RL/311-0.0GRCT-ND/729622 </t>
   </si>
   <si>
-    <t>311-150KGRCT-ND</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.digikey.com/product-detail/en/yageo/RC0603JR-07150KL/311-150KGRCT-ND/729662 </t>
   </si>
   <si>
@@ -321,13 +318,37 @@
   </si>
   <si>
     <t>C25(0.1uF)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/wurth-electronics-inc/61301611121/732-5327-ND/4846854</t>
+  </si>
+  <si>
+    <t>Jumper 8 in quantity</t>
+  </si>
+  <si>
+    <t>header 16 pin</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/QPC02SXGN-RC/S9337-ND/2618262</t>
+  </si>
+  <si>
+    <t>test point</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/keystone-electronics/5019/36-5019CT-ND/3907344</t>
+  </si>
+  <si>
+    <t>36-5019CT-ND</t>
+  </si>
+  <si>
+    <t>732-5327-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,13 +364,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -365,12 +406,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -685,22 +729,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="128.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="128.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -714,11 +758,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
@@ -728,11 +772,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
@@ -742,11 +790,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -756,8 +808,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
@@ -767,8 +820,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
@@ -778,8 +832,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
@@ -789,111 +844,110 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>76</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -902,355 +956,389 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C52" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D9" r:id="rId5"/>
-    <hyperlink ref="D18" r:id="rId6"/>
-    <hyperlink ref="D17" r:id="rId7"/>
-    <hyperlink ref="D19" r:id="rId8"/>
-    <hyperlink ref="D20" r:id="rId9"/>
-    <hyperlink ref="D23" r:id="rId10"/>
-    <hyperlink ref="D32" r:id="rId11"/>
-    <hyperlink ref="D41" r:id="rId12"/>
-    <hyperlink ref="D42" r:id="rId13"/>
-    <hyperlink ref="D43" r:id="rId14"/>
-    <hyperlink ref="D34" r:id="rId15"/>
-    <hyperlink ref="D36" r:id="rId16"/>
-    <hyperlink ref="D14" r:id="rId17"/>
-    <hyperlink ref="D15" r:id="rId18"/>
-    <hyperlink ref="D40" r:id="rId19"/>
-    <hyperlink ref="D38" r:id="rId20"/>
-    <hyperlink ref="D39" r:id="rId21"/>
-    <hyperlink ref="D2" r:id="rId22"/>
-    <hyperlink ref="D10" r:id="rId23"/>
-    <hyperlink ref="D11" r:id="rId24"/>
-    <hyperlink ref="D22" r:id="rId25"/>
-    <hyperlink ref="D21" r:id="rId26"/>
-    <hyperlink ref="D24" r:id="rId27"/>
-    <hyperlink ref="D44" r:id="rId28"/>
-    <hyperlink ref="D45" r:id="rId29"/>
-    <hyperlink ref="D48" r:id="rId30"/>
-    <hyperlink ref="D27" r:id="rId31"/>
-    <hyperlink ref="D28" r:id="rId32"/>
-    <hyperlink ref="D31" r:id="rId33"/>
-    <hyperlink ref="D49" r:id="rId34"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D35" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D44" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D45" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D46" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D37" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D39" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D43" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D41" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D42" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D2" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D10" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D11" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D24" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D48" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D52" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D12" r:id="rId35" xr:uid="{2AB2C81A-51E0-4AFB-BD1F-FA0EA73185A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>